--- a/Soothsayer_for_Project_Contingency_1.3.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B74B3A-F50F-4165-8D0C-836A0322974A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7593C7-1AD0-4DA1-B463-7F48CFD6CFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <t>ID</t>
   </si>
@@ -2315,6 +2315,65 @@
   <si>
     <t>Changed Partial Contingency to use ROUNDUP function, updated footer link from Twitter to newsletter</t>
   </si>
+  <si>
+    <r>
+      <t>Soothsayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>™</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for Project Contingency</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFF1592A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change Log</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2323,7 +2382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2559,6 +2618,30 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFF1592A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2868,7 +2951,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3008,9 +3091,6 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,18 +3120,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3073,6 +3141,34 @@
     <xf numFmtId="1" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3448,47 +3544,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="69" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58" t="s">
         <v>560</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="60"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="59"/>
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="65" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3515,13 +3611,13 @@
         <f>SUM(G4:G1003)</f>
         <v>27</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="69"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3554,7 +3650,7 @@
       <c r="J4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="49">
         <f>1000-COUNTBLANK(B4:B1003)</f>
         <v>15</v>
       </c>
@@ -4131,7 +4227,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="53" t="s">
         <v>571</v>
       </c>
       <c r="I19" s="17"/>
@@ -4164,7 +4260,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="54" t="s">
         <v>565</v>
       </c>
       <c r="I20" s="17"/>
@@ -4197,7 +4293,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="54" t="s">
         <v>572</v>
       </c>
       <c r="I21" s="17"/>
@@ -4230,7 +4326,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H22" s="55" t="s">
+      <c r="H22" s="54" t="s">
         <v>566</v>
       </c>
       <c r="I22" s="17"/>
@@ -4263,7 +4359,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="55" t="s">
         <v>567</v>
       </c>
       <c r="I23" s="24"/>
@@ -28424,7 +28520,7 @@
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1008" s="46" t="str">
-        <f>CONCATENATE("Version ",'Change Log'!$B$2," – © 2016-2020, William W. Davis, MSPM, PMP")</f>
+        <f>CONCATENATE("Version ",'Change Log'!$B$3," – © 2016-2020, William W. Davis, MSPM, PMP")</f>
         <v>Version 1.3 – © 2016-2020, William W. Davis, MSPM, PMP</v>
       </c>
       <c r="B1008" s="1"/>
@@ -28436,63 +28532,63 @@
       <c r="H1008" s="1"/>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1009" s="61" t="s">
+      <c r="A1009" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B1009" s="61"/>
-      <c r="C1009" s="61"/>
-      <c r="D1009" s="61"/>
-      <c r="E1009" s="61"/>
-      <c r="F1009" s="61"/>
-      <c r="G1009" s="61"/>
+      <c r="B1009" s="67"/>
+      <c r="C1009" s="67"/>
+      <c r="D1009" s="67"/>
+      <c r="E1009" s="67"/>
+      <c r="F1009" s="67"/>
+      <c r="G1009" s="67"/>
       <c r="H1009" s="28"/>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1010" s="61" t="s">
+      <c r="A1010" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B1010" s="61"/>
-      <c r="C1010" s="61"/>
-      <c r="D1010" s="61"/>
-      <c r="E1010" s="61"/>
-      <c r="F1010" s="61"/>
+      <c r="B1010" s="67"/>
+      <c r="C1010" s="67"/>
+      <c r="D1010" s="67"/>
+      <c r="E1010" s="67"/>
+      <c r="F1010" s="67"/>
       <c r="G1010" s="3"/>
       <c r="H1010" s="28"/>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1011" s="61" t="s">
+      <c r="A1011" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B1011" s="61"/>
-      <c r="C1011" s="61"/>
-      <c r="D1011" s="61"/>
+      <c r="B1011" s="67"/>
+      <c r="C1011" s="67"/>
+      <c r="D1011" s="67"/>
       <c r="E1011" s="3"/>
       <c r="F1011" s="3"/>
       <c r="G1011" s="3"/>
       <c r="H1011" s="28"/>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1012" s="61" t="s">
+      <c r="A1012" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B1012" s="61"/>
-      <c r="C1012" s="61"/>
-      <c r="D1012" s="61"/>
+      <c r="B1012" s="67"/>
+      <c r="C1012" s="67"/>
+      <c r="D1012" s="67"/>
       <c r="E1012" s="3"/>
       <c r="F1012" s="3"/>
       <c r="G1012" s="3"/>
       <c r="H1012" s="28"/>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1013" s="61" t="s">
+      <c r="A1013" s="67" t="s">
         <v>576</v>
       </c>
-      <c r="B1013" s="61"/>
-      <c r="C1013" s="61"/>
-      <c r="D1013" s="61"/>
-      <c r="E1013" s="61"/>
-      <c r="F1013" s="61"/>
-      <c r="G1013" s="61"/>
+      <c r="B1013" s="67"/>
+      <c r="C1013" s="67"/>
+      <c r="D1013" s="67"/>
+      <c r="E1013" s="67"/>
+      <c r="F1013" s="67"/>
+      <c r="G1013" s="67"/>
       <c r="H1013" s="28"/>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
@@ -28602,14 +28698,14 @@
       <c r="H1022" s="28"/>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1023" s="62" t="s">
+      <c r="A1023" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1023" s="62"/>
-      <c r="C1023" s="62"/>
-      <c r="D1023" s="62"/>
-      <c r="E1023" s="62"/>
-      <c r="F1023" s="62"/>
+      <c r="B1023" s="68"/>
+      <c r="C1023" s="68"/>
+      <c r="D1023" s="68"/>
+      <c r="E1023" s="68"/>
+      <c r="F1023" s="68"/>
       <c r="G1023" s="3"/>
       <c r="H1023" s="28"/>
     </row>
@@ -28618,16 +28714,16 @@
     <sortCondition descending="1" ref="D4:D18"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1011:D1011"/>
+    <mergeCell ref="A1012:D1012"/>
+    <mergeCell ref="A1023:F1023"/>
+    <mergeCell ref="A1013:G1013"/>
+    <mergeCell ref="A1:D2"/>
     <mergeCell ref="H2:N3"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1009:G1009"/>
     <mergeCell ref="A1010:F1010"/>
-    <mergeCell ref="A1011:D1011"/>
-    <mergeCell ref="A1012:D1012"/>
-    <mergeCell ref="A1023:F1023"/>
-    <mergeCell ref="A1013:G1013"/>
-    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="At Risk input warning" error="The percentage you entered should be between 20% and 50% for most project estimation purposes.  Change the Excel Data Validation for this cell if you need to use a value outside this range." promptTitle="At Risk Error Distribution" prompt="Enter an At Risk error distribution approximation between 20% and 50%, where 33% is a normal, decreasing error, and 50% is a uniform error." sqref="K15" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -28651,10 +28747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28664,80 +28760,87 @@
     <col min="3" max="3" width="100.5703125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="50">
         <v>44019</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="50">
         <v>43947</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
         <v>43736</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
         <v>43647</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
         <v>42896</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
         <v>42650</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>12</v>
       </c>
     </row>
@@ -28750,3063 +28853,3066 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62ACC09E-41BD-4268-8E27-903C31885DAB}">
   <dimension ref="A1:A676"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="73"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="71" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="71" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="71"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="71" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="71" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="71" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="71"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="71"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="71" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="71" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="71" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="71" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="71" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="71" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="71" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="71" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="71" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="71" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="71" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="71" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="71" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="71" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="71" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="71" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="71" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="71"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="71" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="71" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="71" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="71" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="71"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="71" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="71" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="71" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="71"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="71" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="71" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="71" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="71" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="71" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="71"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="71" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="71" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="71" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="71" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="71" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="71" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="71" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="71"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="71" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="71" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="71" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="71" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="71" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="71" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="71"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="71" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="71" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="71"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="71" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="71"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="71" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="71"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="71" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
+      <c r="A76" s="71"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="71" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="71" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
+      <c r="A79" s="71"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="71" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="71" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="71" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="71"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="71" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="71" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="71" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="71" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
+      <c r="A88" s="71"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="s">
+      <c r="A89" s="71" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="71" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
+      <c r="A91" s="71"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="71" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="71" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="71" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="71" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="71" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="71" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
+      <c r="A98" s="71"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="s">
+      <c r="A99" s="71" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="71" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="71" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="71"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="71" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="71" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="71" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
+      <c r="A106" s="71" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="49" t="s">
+      <c r="A107" s="71" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="71" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="49" t="s">
+      <c r="A109" s="71" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="49" t="s">
+      <c r="A110" s="71" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
+      <c r="A111" s="71"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="49" t="s">
+      <c r="A112" s="71" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
+      <c r="A113" s="71"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="49" t="s">
+      <c r="A114" s="71" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="49" t="s">
+      <c r="A115" s="71" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
+      <c r="A117" s="71"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="49" t="s">
+      <c r="A118" s="71" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="49" t="s">
+      <c r="A119" s="71" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="49" t="s">
+      <c r="A120" s="71" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="49" t="s">
+      <c r="A121" s="71" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="71"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="49" t="s">
+      <c r="A123" s="71" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="71" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="49" t="s">
+      <c r="A126" s="71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="49" t="s">
+      <c r="A127" s="71" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="49" t="s">
+      <c r="A128" s="71" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="49" t="s">
+      <c r="A129" s="71" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="71" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="49" t="s">
+      <c r="A131" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="49" t="s">
+      <c r="A132" s="71" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
+      <c r="A133" s="71"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="49" t="s">
+      <c r="A134" s="71" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="49" t="s">
+      <c r="A135" s="71" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="49" t="s">
+      <c r="A136" s="71" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="49" t="s">
+      <c r="A137" s="71" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="49" t="s">
+      <c r="A138" s="71" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="49" t="s">
+      <c r="A139" s="71" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="49" t="s">
+      <c r="A140" s="71" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="49" t="s">
+      <c r="A141" s="71" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="49" t="s">
+      <c r="A142" s="71" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="71" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="49" t="s">
+      <c r="A144" s="71" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="49" t="s">
+      <c r="A145" s="71" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
+      <c r="A146" s="71"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="49" t="s">
+      <c r="A147" s="71" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="49" t="s">
+      <c r="A148" s="71" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="49" t="s">
+      <c r="A149" s="71" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="71"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="71" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="49" t="s">
+      <c r="A152" s="71" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
+      <c r="A153" s="71"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="49" t="s">
+      <c r="A154" s="71" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
+      <c r="A155" s="71"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="49" t="s">
+      <c r="A156" s="71" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="49" t="s">
+      <c r="A157" s="71" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="49" t="s">
+      <c r="A158" s="71" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="49" t="s">
+      <c r="A159" s="71" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="49" t="s">
+      <c r="A160" s="71" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="49" t="s">
+      <c r="A161" s="71" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="49" t="s">
+      <c r="A162" s="71" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
+      <c r="A163" s="71"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="71" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="49" t="s">
+      <c r="A165" s="71" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="49" t="s">
+      <c r="A166" s="71" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="49" t="s">
+      <c r="A167" s="71" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="49" t="s">
+      <c r="A168" s="71" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="49" t="s">
+      <c r="A169" s="71" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="49" t="s">
+      <c r="A170" s="71" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="49" t="s">
+      <c r="A171" s="71" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="49" t="s">
+      <c r="A172" s="71" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="49" t="s">
+      <c r="A173" s="71" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
+      <c r="A174" s="71"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="49" t="s">
+      <c r="A175" s="71" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="49" t="s">
+      <c r="A176" s="71" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="71" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="49"/>
+      <c r="A178" s="71"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="49" t="s">
+      <c r="A179" s="71" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
+      <c r="A180" s="71"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="49" t="s">
+      <c r="A181" s="71" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="49" t="s">
+      <c r="A182" s="71" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="49" t="s">
+      <c r="A183" s="71" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="49" t="s">
+      <c r="A184" s="71" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="49" t="s">
+      <c r="A185" s="71" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
+      <c r="A186" s="71"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="49" t="s">
+      <c r="A187" s="71" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="49" t="s">
+      <c r="A188" s="71" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="49" t="s">
+      <c r="A189" s="71" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="49" t="s">
+      <c r="A190" s="71" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="49" t="s">
+      <c r="A191" s="71" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="49" t="s">
+      <c r="A192" s="71" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="49" t="s">
+      <c r="A193" s="71" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
+      <c r="A194" s="71"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="49" t="s">
+      <c r="A195" s="71" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="49"/>
+      <c r="A196" s="71"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="49" t="s">
+      <c r="A197" s="71" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="49" t="s">
+      <c r="A198" s="71" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="49" t="s">
+      <c r="A199" s="71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="49" t="s">
+      <c r="A200" s="71" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="49" t="s">
+      <c r="A201" s="71" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="49" t="s">
+      <c r="A202" s="71" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="49" t="s">
+      <c r="A203" s="71" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
+      <c r="A204" s="71"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="49" t="s">
+      <c r="A205" s="71" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="49" t="s">
+      <c r="A206" s="71" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="49"/>
+      <c r="A207" s="71"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="49" t="s">
+      <c r="A208" s="71" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="49"/>
+      <c r="A209" s="71"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="49" t="s">
+      <c r="A210" s="71" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="49" t="s">
+      <c r="A211" s="71" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="49" t="s">
+      <c r="A212" s="71" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
+      <c r="A213" s="71"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="49" t="s">
+      <c r="A214" s="71" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="49" t="s">
+      <c r="A215" s="71" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="49"/>
+      <c r="A216" s="71"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="49" t="s">
+      <c r="A217" s="71" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="49" t="s">
+      <c r="A218" s="71" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="49" t="s">
+      <c r="A219" s="71" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="49" t="s">
+      <c r="A220" s="71" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="49"/>
+      <c r="A221" s="71"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="49" t="s">
+      <c r="A222" s="71" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="49" t="s">
+      <c r="A223" s="71" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="71" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="49" t="s">
+      <c r="A225" s="71" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="49" t="s">
+      <c r="A226" s="71" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="49" t="s">
+      <c r="A227" s="71" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="49" t="s">
+      <c r="A228" s="71" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="49"/>
+      <c r="A229" s="71"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="49" t="s">
+      <c r="A230" s="71" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="49" t="s">
+      <c r="A231" s="71" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="49" t="s">
+      <c r="A232" s="71" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="49" t="s">
+      <c r="A233" s="71" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="49"/>
+      <c r="A234" s="71"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="49" t="s">
+      <c r="A235" s="71" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="49" t="s">
+      <c r="A236" s="71" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="49" t="s">
+      <c r="A237" s="71" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="49" t="s">
+      <c r="A238" s="71" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="49" t="s">
+      <c r="A239" s="71" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="49" t="s">
+      <c r="A240" s="71" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="49" t="s">
+      <c r="A241" s="71" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="49" t="s">
+      <c r="A242" s="71" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="49" t="s">
+      <c r="A243" s="71" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="49"/>
+      <c r="A244" s="71"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="49" t="s">
+      <c r="A245" s="71" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="49"/>
+      <c r="A246" s="71"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="49" t="s">
+      <c r="A247" s="71" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="49" t="s">
+      <c r="A248" s="71" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="49" t="s">
+      <c r="A249" s="71" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="49" t="s">
+      <c r="A250" s="71" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="49"/>
+      <c r="A251" s="71"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="49" t="s">
+      <c r="A252" s="71" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="49" t="s">
+      <c r="A253" s="71" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="49" t="s">
+      <c r="A254" s="71" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="49" t="s">
+      <c r="A255" s="71" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="49"/>
+      <c r="A256" s="71"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="49" t="s">
+      <c r="A257" s="71" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="49" t="s">
+      <c r="A258" s="71" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="49" t="s">
+      <c r="A259" s="71" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="49" t="s">
+      <c r="A260" s="71" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="49" t="s">
+      <c r="A261" s="71" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="49" t="s">
+      <c r="A262" s="71" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="49" t="s">
+      <c r="A263" s="71" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="49" t="s">
+      <c r="A264" s="71" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="49" t="s">
+      <c r="A265" s="71" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="49" t="s">
+      <c r="A266" s="71" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="49" t="s">
+      <c r="A267" s="71" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="49"/>
+      <c r="A268" s="71"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="49" t="s">
+      <c r="A269" s="71" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="49" t="s">
+      <c r="A270" s="71" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="49" t="s">
+      <c r="A271" s="71" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="49" t="s">
+      <c r="A272" s="71" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="49" t="s">
+      <c r="A273" s="71" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="49"/>
+      <c r="A274" s="71"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="49" t="s">
+      <c r="A275" s="71" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="49" t="s">
+      <c r="A276" s="71" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="49" t="s">
+      <c r="A277" s="71" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="49" t="s">
+      <c r="A278" s="71" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="49" t="s">
+      <c r="A279" s="71" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="49" t="s">
+      <c r="A280" s="71" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="49" t="s">
+      <c r="A281" s="71" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="49" t="s">
+      <c r="A282" s="71" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="49" t="s">
+      <c r="A283" s="71" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="49" t="s">
+      <c r="A284" s="71" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="49" t="s">
+      <c r="A285" s="71" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="49" t="s">
+      <c r="A286" s="71" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="49"/>
+      <c r="A287" s="71"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="49" t="s">
+      <c r="A288" s="71" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="49" t="s">
+      <c r="A289" s="71" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="49" t="s">
+      <c r="A290" s="71" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="49" t="s">
+      <c r="A291" s="71" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="49"/>
+      <c r="A292" s="71"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="49" t="s">
+      <c r="A293" s="71" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="49" t="s">
+      <c r="A294" s="71" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="49" t="s">
+      <c r="A295" s="71" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="49"/>
+      <c r="A296" s="71"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="49" t="s">
+      <c r="A297" s="71" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="49" t="s">
+      <c r="A298" s="71" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="49" t="s">
+      <c r="A299" s="71" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="49" t="s">
+      <c r="A300" s="71" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="49" t="s">
+      <c r="A301" s="71" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="49" t="s">
+      <c r="A302" s="71" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="49" t="s">
+      <c r="A303" s="71" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="49" t="s">
+      <c r="A304" s="71" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="49" t="s">
+      <c r="A305" s="71" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="49" t="s">
+      <c r="A306" s="71" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="49" t="s">
+      <c r="A307" s="71" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="49" t="s">
+      <c r="A308" s="71" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="49"/>
+      <c r="A309" s="71"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="49" t="s">
+      <c r="A310" s="71" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="49" t="s">
+      <c r="A311" s="71" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="49" t="s">
+      <c r="A312" s="71" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="49" t="s">
+      <c r="A313" s="71" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="49" t="s">
+      <c r="A314" s="71" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="49" t="s">
+      <c r="A315" s="71" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="49" t="s">
+      <c r="A316" s="71" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="49"/>
+      <c r="A317" s="71"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="49" t="s">
+      <c r="A318" s="71" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="49" t="s">
+      <c r="A319" s="71" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="49" t="s">
+      <c r="A320" s="71" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="49" t="s">
+      <c r="A321" s="71" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="49" t="s">
+      <c r="A322" s="71" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="49" t="s">
+      <c r="A323" s="71" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="49" t="s">
+      <c r="A324" s="71" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="49" t="s">
+      <c r="A325" s="71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="49" t="s">
+      <c r="A326" s="71" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="49" t="s">
+      <c r="A327" s="71" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="49"/>
+      <c r="A328" s="71"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="49" t="s">
+      <c r="A329" s="71" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="49" t="s">
+      <c r="A330" s="71" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="49" t="s">
+      <c r="A331" s="71" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="49" t="s">
+      <c r="A332" s="71" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="49" t="s">
+      <c r="A333" s="71" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="49" t="s">
+      <c r="A334" s="71" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="49" t="s">
+      <c r="A335" s="71" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="49"/>
+      <c r="A336" s="71"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="49" t="s">
+      <c r="A337" s="71" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="49" t="s">
+      <c r="A338" s="71" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="49" t="s">
+      <c r="A339" s="71" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="49" t="s">
+      <c r="A340" s="71" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="49" t="s">
+      <c r="A341" s="71" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="49"/>
+      <c r="A342" s="71"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="49" t="s">
+      <c r="A343" s="71" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="49"/>
+      <c r="A344" s="71"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="49" t="s">
+      <c r="A345" s="71" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="49" t="s">
+      <c r="A346" s="71" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="49" t="s">
+      <c r="A347" s="71" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="49" t="s">
+      <c r="A348" s="71" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="49" t="s">
+      <c r="A349" s="71" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="49" t="s">
+      <c r="A350" s="71" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="49" t="s">
+      <c r="A351" s="71" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="49" t="s">
+      <c r="A352" s="71" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="49"/>
+      <c r="A353" s="71"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="49" t="s">
+      <c r="A354" s="71" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="49" t="s">
+      <c r="A355" s="71" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="49" t="s">
+      <c r="A356" s="71" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="49" t="s">
+      <c r="A357" s="71" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="49" t="s">
+      <c r="A358" s="71" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="49" t="s">
+      <c r="A359" s="71" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="49"/>
+      <c r="A360" s="71"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="49" t="s">
+      <c r="A361" s="71" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="49" t="s">
+      <c r="A362" s="71" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="49" t="s">
+      <c r="A363" s="71" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="49"/>
+      <c r="A364" s="71"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="49" t="s">
+      <c r="A365" s="71" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="49" t="s">
+      <c r="A366" s="71" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="49"/>
+      <c r="A367" s="71"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="49" t="s">
+      <c r="A368" s="71" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="49" t="s">
+      <c r="A369" s="71" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="49" t="s">
+      <c r="A370" s="71" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="49"/>
+      <c r="A371" s="71"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="49" t="s">
+      <c r="A372" s="71" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="49" t="s">
+      <c r="A373" s="71" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="49" t="s">
+      <c r="A374" s="71" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="49"/>
+      <c r="A375" s="71"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="49" t="s">
+      <c r="A376" s="71" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="49" t="s">
+      <c r="A377" s="71" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="49"/>
+      <c r="A378" s="71"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="49" t="s">
+      <c r="A379" s="71" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="49" t="s">
+      <c r="A380" s="71" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="49"/>
+      <c r="A381" s="71"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="49" t="s">
+      <c r="A382" s="71" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="49" t="s">
+      <c r="A383" s="71" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="49" t="s">
+      <c r="A384" s="71" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="49" t="s">
+      <c r="A385" s="71" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="49" t="s">
+      <c r="A386" s="71" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="49"/>
+      <c r="A387" s="71"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="49" t="s">
+      <c r="A388" s="71" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="49" t="s">
+      <c r="A389" s="71" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="49" t="s">
+      <c r="A390" s="71" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="49" t="s">
+      <c r="A391" s="71" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="49" t="s">
+      <c r="A392" s="71" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="49" t="s">
+      <c r="A393" s="71" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="49" t="s">
+      <c r="A394" s="71" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="49" t="s">
+      <c r="A395" s="71" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="49" t="s">
+      <c r="A396" s="71" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="49"/>
+      <c r="A397" s="71"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="49" t="s">
+      <c r="A398" s="71" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="49" t="s">
+      <c r="A399" s="71" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="49" t="s">
+      <c r="A400" s="71" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="49" t="s">
+      <c r="A401" s="71" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="49"/>
+      <c r="A402" s="71"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="49" t="s">
+      <c r="A403" s="71" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="49" t="s">
+      <c r="A404" s="71" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="49" t="s">
+      <c r="A405" s="71" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="49"/>
+      <c r="A406" s="71"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="49" t="s">
+      <c r="A407" s="71" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="49"/>
+      <c r="A408" s="71"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="49" t="s">
+      <c r="A409" s="71" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="49" t="s">
+      <c r="A410" s="71" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="49" t="s">
+      <c r="A411" s="71" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="49" t="s">
+      <c r="A412" s="71" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="49" t="s">
+      <c r="A413" s="71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="49"/>
+      <c r="A414" s="71"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="49" t="s">
+      <c r="A415" s="71" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="49" t="s">
+      <c r="A416" s="71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="49" t="s">
+      <c r="A417" s="71" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="49" t="s">
+      <c r="A418" s="71" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="49" t="s">
+      <c r="A419" s="71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="49" t="s">
+      <c r="A420" s="71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="49"/>
+      <c r="A421" s="71"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="49" t="s">
+      <c r="A422" s="71" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="49" t="s">
+      <c r="A423" s="71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="49" t="s">
+      <c r="A424" s="71" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="49" t="s">
+      <c r="A425" s="71" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="49" t="s">
+      <c r="A426" s="71" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="49" t="s">
+      <c r="A427" s="71" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="49"/>
+      <c r="A428" s="71"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="49" t="s">
+      <c r="A429" s="71" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="49" t="s">
+      <c r="A430" s="71" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="49" t="s">
+      <c r="A431" s="71" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="49" t="s">
+      <c r="A432" s="71" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="49" t="s">
+      <c r="A433" s="71" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="49"/>
+      <c r="A434" s="71"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="49" t="s">
+      <c r="A435" s="71" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="49"/>
+      <c r="A436" s="71"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="49" t="s">
+      <c r="A437" s="71" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="49" t="s">
+      <c r="A438" s="71" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="49" t="s">
+      <c r="A439" s="71" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="49" t="s">
+      <c r="A440" s="71" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="49" t="s">
+      <c r="A441" s="71" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="49" t="s">
+      <c r="A442" s="71" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="49" t="s">
+      <c r="A443" s="71" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="49" t="s">
+      <c r="A444" s="71" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="49"/>
+      <c r="A445" s="71"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="49" t="s">
+      <c r="A446" s="71" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="49"/>
+      <c r="A447" s="71"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="49" t="s">
+      <c r="A448" s="71" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="49" t="s">
+      <c r="A449" s="71" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="49" t="s">
+      <c r="A450" s="71" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="49" t="s">
+      <c r="A451" s="71" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="49"/>
+      <c r="A452" s="71"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="49" t="s">
+      <c r="A453" s="71" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="49" t="s">
+      <c r="A454" s="71" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="49" t="s">
+      <c r="A455" s="71" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="49" t="s">
+      <c r="A456" s="71" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="49" t="s">
+      <c r="A457" s="71" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="49" t="s">
+      <c r="A458" s="71" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="49" t="s">
+      <c r="A459" s="71" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="49" t="s">
+      <c r="A460" s="71" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="49" t="s">
+      <c r="A461" s="71" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="49"/>
+      <c r="A462" s="71"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="49" t="s">
+      <c r="A463" s="71" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="49" t="s">
+      <c r="A464" s="71" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="49" t="s">
+      <c r="A465" s="71" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="49" t="s">
+      <c r="A466" s="71" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="49" t="s">
+      <c r="A467" s="71" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="49" t="s">
+      <c r="A468" s="71" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="49" t="s">
+      <c r="A469" s="71" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="49"/>
+      <c r="A470" s="71"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="49" t="s">
+      <c r="A471" s="71" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="49"/>
+      <c r="A472" s="71"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="49" t="s">
+      <c r="A473" s="71" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="49" t="s">
+      <c r="A474" s="71" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="49" t="s">
+      <c r="A475" s="71" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="49"/>
+      <c r="A476" s="71"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="49" t="s">
+      <c r="A477" s="71" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="49" t="s">
+      <c r="A478" s="71" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="49" t="s">
+      <c r="A479" s="71" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="49" t="s">
+      <c r="A480" s="71" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="49" t="s">
+      <c r="A481" s="71" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="49" t="s">
+      <c r="A482" s="71" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="49" t="s">
+      <c r="A483" s="71" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="49" t="s">
+      <c r="A484" s="71" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="49" t="s">
+      <c r="A485" s="71" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="49"/>
+      <c r="A486" s="71"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="49" t="s">
+      <c r="A487" s="71" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="49" t="s">
+      <c r="A488" s="71" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="49" t="s">
+      <c r="A489" s="71" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="49" t="s">
+      <c r="A490" s="71" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="49"/>
+      <c r="A491" s="71"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="49" t="s">
+      <c r="A492" s="71" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="49" t="s">
+      <c r="A493" s="71" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="49" t="s">
+      <c r="A494" s="71" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="49" t="s">
+      <c r="A495" s="71" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="49" t="s">
+      <c r="A496" s="71" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="49" t="s">
+      <c r="A497" s="71" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="49"/>
+      <c r="A498" s="71"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="49" t="s">
+      <c r="A499" s="71" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="49" t="s">
+      <c r="A500" s="71" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="49" t="s">
+      <c r="A501" s="71" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="49" t="s">
+      <c r="A502" s="71" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="49" t="s">
+      <c r="A503" s="71" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="49" t="s">
+      <c r="A504" s="71" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="49" t="s">
+      <c r="A505" s="71" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="49" t="s">
+      <c r="A506" s="71" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="49" t="s">
+      <c r="A507" s="71" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="49" t="s">
+      <c r="A508" s="71" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="49" t="s">
+      <c r="A509" s="71" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="49" t="s">
+      <c r="A510" s="71" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="49" t="s">
+      <c r="A511" s="71" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="49"/>
+      <c r="A512" s="71"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="49" t="s">
+      <c r="A513" s="71" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="49" t="s">
+      <c r="A514" s="71" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="49" t="s">
+      <c r="A515" s="71" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="49" t="s">
+      <c r="A516" s="71" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="49" t="s">
+      <c r="A517" s="71" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="49" t="s">
+      <c r="A518" s="71" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="49" t="s">
+      <c r="A519" s="71" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="49"/>
+      <c r="A520" s="71"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="49" t="s">
+      <c r="A521" s="71" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="49" t="s">
+      <c r="A522" s="71" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="49" t="s">
+      <c r="A523" s="71" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="49" t="s">
+      <c r="A524" s="71" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="49" t="s">
+      <c r="A525" s="71" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="49" t="s">
+      <c r="A526" s="71" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="49" t="s">
+      <c r="A527" s="71" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="49" t="s">
+      <c r="A528" s="71" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="49" t="s">
+      <c r="A529" s="71" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="49" t="s">
+      <c r="A530" s="71" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="49" t="s">
+      <c r="A531" s="71" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="49" t="s">
+      <c r="A532" s="71" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="49" t="s">
+      <c r="A533" s="71" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="49" t="s">
+      <c r="A534" s="71" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="49"/>
+      <c r="A535" s="71"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="49" t="s">
+      <c r="A536" s="71" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="49" t="s">
+      <c r="A537" s="71" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="49" t="s">
+      <c r="A538" s="71" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="49"/>
+      <c r="A539" s="71"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="49" t="s">
+      <c r="A540" s="71" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="49"/>
+      <c r="A541" s="71"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="49" t="s">
+      <c r="A542" s="71" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="49" t="s">
+      <c r="A543" s="71" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="49" t="s">
+      <c r="A544" s="71" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="49" t="s">
+      <c r="A545" s="71" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="49" t="s">
+      <c r="A546" s="71" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="49" t="s">
+      <c r="A547" s="71" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="49" t="s">
+      <c r="A548" s="71" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="49" t="s">
+      <c r="A549" s="71" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="49" t="s">
+      <c r="A550" s="71" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="49"/>
+      <c r="A551" s="71"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="49" t="s">
+      <c r="A552" s="71" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="49"/>
+      <c r="A553" s="71"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="49" t="s">
+      <c r="A554" s="71" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="49" t="s">
+      <c r="A555" s="71" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="49" t="s">
+      <c r="A556" s="71" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="49" t="s">
+      <c r="A557" s="71" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="49" t="s">
+      <c r="A558" s="71" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="49" t="s">
+      <c r="A559" s="71" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="49" t="s">
+      <c r="A560" s="71" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="49" t="s">
+      <c r="A561" s="71" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="49"/>
+      <c r="A562" s="71"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="49" t="s">
+      <c r="A563" s="71" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="49"/>
+      <c r="A564" s="71"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="49" t="s">
+      <c r="A565" s="71" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="49" t="s">
+      <c r="A566" s="71" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="49" t="s">
+      <c r="A567" s="71" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="49" t="s">
+      <c r="A568" s="71" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="49"/>
+      <c r="A569" s="71"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="49" t="s">
+      <c r="A570" s="71" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="49" t="s">
+      <c r="A571" s="71" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="49" t="s">
+      <c r="A572" s="71" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="49" t="s">
+      <c r="A573" s="71" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="49" t="s">
+      <c r="A574" s="71" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="49" t="s">
+      <c r="A575" s="71" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="49" t="s">
+      <c r="A576" s="71" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="49" t="s">
+      <c r="A577" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="49"/>
+      <c r="A578" s="71"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="49" t="s">
+      <c r="A579" s="71" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="49" t="s">
+      <c r="A580" s="71" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="49" t="s">
+      <c r="A581" s="71" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="49" t="s">
+      <c r="A582" s="71" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="49"/>
+      <c r="A583" s="71"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="49" t="s">
+      <c r="A584" s="71" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="49" t="s">
+      <c r="A585" s="71" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="49" t="s">
+      <c r="A586" s="71" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="49" t="s">
+      <c r="A587" s="71" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="49"/>
+      <c r="A588" s="71"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="49" t="s">
+      <c r="A589" s="71" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="49"/>
+      <c r="A590" s="71"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="49" t="s">
+      <c r="A591" s="71" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="49" t="s">
+      <c r="A592" s="71" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="49" t="s">
+      <c r="A593" s="71" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="49" t="s">
+      <c r="A594" s="71" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="49" t="s">
+      <c r="A595" s="71" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="49" t="s">
+      <c r="A596" s="71" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="49" t="s">
+      <c r="A597" s="71" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="49" t="s">
+      <c r="A598" s="71" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="49"/>
+      <c r="A599" s="71"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="49" t="s">
+      <c r="A600" s="71" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="49"/>
+      <c r="A601" s="71"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="49" t="s">
+      <c r="A602" s="71" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="49" t="s">
+      <c r="A603" s="71" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="49" t="s">
+      <c r="A604" s="71" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="49" t="s">
+      <c r="A605" s="71" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="49" t="s">
+      <c r="A606" s="71" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="49" t="s">
+      <c r="A607" s="71" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="49" t="s">
+      <c r="A608" s="71" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="49" t="s">
+      <c r="A609" s="71" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="49" t="s">
+      <c r="A610" s="71" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="49"/>
+      <c r="A611" s="71"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="49" t="s">
+      <c r="A612" s="71" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="49"/>
+      <c r="A613" s="71"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="49" t="s">
+      <c r="A614" s="71" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="49" t="s">
+      <c r="A615" s="71" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="49" t="s">
+      <c r="A616" s="71" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="49" t="s">
+      <c r="A617" s="71" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="49" t="s">
+      <c r="A618" s="71" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="49" t="s">
+      <c r="A619" s="71" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="49"/>
+      <c r="A620" s="71"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="49" t="s">
+      <c r="A621" s="71" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="49"/>
+      <c r="A622" s="71"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="49"/>
+      <c r="A623" s="71"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="49"/>
+      <c r="A624" s="71"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="49"/>
+      <c r="A625" s="71"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="49"/>
+      <c r="A626" s="71"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="49"/>
+      <c r="A627" s="71"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="49"/>
+      <c r="A628" s="71"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="49"/>
+      <c r="A629" s="71"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="49"/>
+      <c r="A630" s="71"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="49"/>
+      <c r="A631" s="71"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="49"/>
+      <c r="A632" s="71"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="49"/>
+      <c r="A633" s="71"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="49"/>
+      <c r="A634" s="71"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="49"/>
+      <c r="A635" s="71"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="49"/>
+      <c r="A636" s="71"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="49"/>
+      <c r="A637" s="71"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="49"/>
+      <c r="A638" s="71"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="49"/>
+      <c r="A639" s="71"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="49"/>
+      <c r="A640" s="71"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="49"/>
+      <c r="A641" s="71"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="49"/>
+      <c r="A642" s="71"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="49"/>
+      <c r="A643" s="71"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="49"/>
+      <c r="A644" s="71"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="49"/>
+      <c r="A645" s="71"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="49"/>
+      <c r="A646" s="71"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="49"/>
+      <c r="A647" s="71"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="49"/>
+      <c r="A648" s="71"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="49"/>
+      <c r="A649" s="71"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="49"/>
+      <c r="A650" s="71"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="49"/>
+      <c r="A651" s="71"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="49"/>
+      <c r="A652" s="71"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="49"/>
+      <c r="A653" s="71"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="49"/>
+      <c r="A654" s="71"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="49"/>
+      <c r="A655" s="71"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="49"/>
+      <c r="A656" s="71"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="49"/>
+      <c r="A657" s="71"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="49"/>
+      <c r="A658" s="71"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="49"/>
+      <c r="A659" s="71"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="49"/>
+      <c r="A660" s="71"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="49"/>
+      <c r="A661" s="71"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="49"/>
+      <c r="A662" s="71"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="49"/>
+      <c r="A663" s="71"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="49"/>
+      <c r="A664" s="71"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="49"/>
+      <c r="A665" s="71"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="49"/>
+      <c r="A666" s="71"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="49"/>
+      <c r="A667" s="71"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="49"/>
+      <c r="A668" s="71"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="49"/>
+      <c r="A669" s="71"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="49"/>
+      <c r="A670" s="71"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="49"/>
+      <c r="A671" s="71"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="49"/>
+      <c r="A672" s="71"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="49"/>
+      <c r="A673" s="71"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="49"/>
+      <c r="A674" s="71"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="5"/>
+      <c r="A675" s="72"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="49"/>
+      <c r="A676" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soothsayer_for_Project_Contingency_1.3.xlsx
+++ b/Soothsayer_for_Project_Contingency_1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\soothsayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7593C7-1AD0-4DA1-B463-7F48CFD6CFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492501B-AC43-4A43-B567-7E7E907E39C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="580">
   <si>
     <t>ID</t>
   </si>
@@ -2043,12 +2043,6 @@
     <t>project buffering co-created by Drs. Denis Cioffi and Homayoun Khamooshi at the George Washington University. In one of their</t>
   </si>
   <si>
-    <t>In my own research using project simulations, I have found that 25% was also a valid choice which came closer to simulated</t>
-  </si>
-  <si>
-    <t>project outcomes than choosing either 50% or 33%. -- William W. Davis, MSPM, PMP</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> Choose </t>
     </r>
@@ -2102,34 +2096,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> as a less-conservative contingency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Choose </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as a minimum contingency</t>
     </r>
   </si>
   <si>
@@ -2313,9 +2279,6 @@
     <t>Subscribe to the SPERT® newsletter for monthly tips, free webinars, and new release notifications</t>
   </si>
   <si>
-    <t>Changed Partial Contingency to use ROUNDUP function, updated footer link from Twitter to newsletter</t>
-  </si>
-  <si>
     <r>
       <t>Soothsayer</t>
     </r>
@@ -2373,6 +2336,71 @@
       </rPr>
       <t>Change Log</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a minimum contingency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Choose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as a near-minimum contingency</t>
+    </r>
+  </si>
+  <si>
+    <t>to simulated project outcomes than choosing either 50% or 33%. -- William W. Davis, MSPM, PMP</t>
+  </si>
+  <si>
+    <t>In my own research using project simulations, I have found that 20% and 25% were also a valid choices which came closer</t>
+  </si>
+  <si>
+    <t>Changed Partial Contingency to use ROUNDUP function, updated footer link and file properties</t>
   </si>
 </sst>
 </file>
@@ -3120,6 +3148,22 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3153,22 +3197,6 @@
     <xf numFmtId="1" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3527,7 +3555,7 @@
   <dimension ref="A1:O1023"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,17 +3572,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>575</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="71" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="56"/>
@@ -3569,22 +3597,22 @@
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15" s="32" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3611,13 +3639,13 @@
         <f>SUM(G4:G1003)</f>
         <v>27</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4090,7 +4118,7 @@
         <v>0.33</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="15"/>
@@ -4127,7 +4155,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="20"/>
@@ -4164,7 +4192,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="19" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="20"/>
@@ -4200,7 +4228,9 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>575</v>
+      </c>
       <c r="M18" s="17"/>
       <c r="N18" s="20"/>
       <c r="O18" s="28"/>
@@ -4228,7 +4258,7 @@
         <v/>
       </c>
       <c r="H19" s="53" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
@@ -4294,7 +4324,7 @@
         <v/>
       </c>
       <c r="H21" s="54" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -4327,7 +4357,7 @@
         <v/>
       </c>
       <c r="H22" s="54" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -4360,7 +4390,7 @@
         <v/>
       </c>
       <c r="H23" s="55" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -28519,9 +28549,9 @@
       <c r="H1007" s="28"/>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1008" s="46" t="str">
-        <f>CONCATENATE("Version ",'Change Log'!$B$3," – © 2016-2020, William W. Davis, MSPM, PMP")</f>
-        <v>Version 1.3 – © 2016-2020, William W. Davis, MSPM, PMP</v>
+      <c r="A1008" s="46" t="e">
+        <f>CONCATENATE("Version ",'Change Log'!#REF!," – © 2016-2020, William W. Davis, MSPM, PMP")</f>
+        <v>#REF!</v>
       </c>
       <c r="B1008" s="1"/>
       <c r="C1008" s="1"/>
@@ -28532,63 +28562,63 @@
       <c r="H1008" s="1"/>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1009" s="67" t="s">
+      <c r="A1009" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B1009" s="67"/>
-      <c r="C1009" s="67"/>
-      <c r="D1009" s="67"/>
-      <c r="E1009" s="67"/>
-      <c r="F1009" s="67"/>
-      <c r="G1009" s="67"/>
+      <c r="B1009" s="73"/>
+      <c r="C1009" s="73"/>
+      <c r="D1009" s="73"/>
+      <c r="E1009" s="73"/>
+      <c r="F1009" s="73"/>
+      <c r="G1009" s="73"/>
       <c r="H1009" s="28"/>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1010" s="67" t="s">
+      <c r="A1010" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B1010" s="67"/>
-      <c r="C1010" s="67"/>
-      <c r="D1010" s="67"/>
-      <c r="E1010" s="67"/>
-      <c r="F1010" s="67"/>
+      <c r="B1010" s="73"/>
+      <c r="C1010" s="73"/>
+      <c r="D1010" s="73"/>
+      <c r="E1010" s="73"/>
+      <c r="F1010" s="73"/>
       <c r="G1010" s="3"/>
       <c r="H1010" s="28"/>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1011" s="67" t="s">
+      <c r="A1011" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B1011" s="67"/>
-      <c r="C1011" s="67"/>
-      <c r="D1011" s="67"/>
+      <c r="B1011" s="73"/>
+      <c r="C1011" s="73"/>
+      <c r="D1011" s="73"/>
       <c r="E1011" s="3"/>
       <c r="F1011" s="3"/>
       <c r="G1011" s="3"/>
       <c r="H1011" s="28"/>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1012" s="67" t="s">
+      <c r="A1012" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B1012" s="67"/>
-      <c r="C1012" s="67"/>
-      <c r="D1012" s="67"/>
+      <c r="B1012" s="73"/>
+      <c r="C1012" s="73"/>
+      <c r="D1012" s="73"/>
       <c r="E1012" s="3"/>
       <c r="F1012" s="3"/>
       <c r="G1012" s="3"/>
       <c r="H1012" s="28"/>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1013" s="67" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1013" s="67"/>
-      <c r="C1013" s="67"/>
-      <c r="D1013" s="67"/>
-      <c r="E1013" s="67"/>
-      <c r="F1013" s="67"/>
-      <c r="G1013" s="67"/>
+      <c r="A1013" s="73" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1013" s="73"/>
+      <c r="C1013" s="73"/>
+      <c r="D1013" s="73"/>
+      <c r="E1013" s="73"/>
+      <c r="F1013" s="73"/>
+      <c r="G1013" s="73"/>
       <c r="H1013" s="28"/>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
@@ -28698,14 +28728,14 @@
       <c r="H1022" s="28"/>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1023" s="68" t="s">
+      <c r="A1023" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B1023" s="68"/>
-      <c r="C1023" s="68"/>
-      <c r="D1023" s="68"/>
-      <c r="E1023" s="68"/>
-      <c r="F1023" s="68"/>
+      <c r="B1023" s="74"/>
+      <c r="C1023" s="74"/>
+      <c r="D1023" s="74"/>
+      <c r="E1023" s="74"/>
+      <c r="F1023" s="74"/>
       <c r="G1023" s="3"/>
       <c r="H1023" s="28"/>
     </row>
@@ -28750,7 +28780,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28761,11 +28791,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>578</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
+      <c r="A1" s="63" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -28780,13 +28810,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="50">
-        <v>44019</v>
+        <v>44021</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -28794,7 +28824,7 @@
         <v>43947</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>564</v>
@@ -28857,3062 +28887,3062 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="73"/>
+    <col min="1" max="1" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="60" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="60" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="60" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="60"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="60"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="60"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="60" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="60" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="60" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="60" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="60" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
+      <c r="A21" s="60"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="60" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="60" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="60" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="60"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="60" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="60" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
+      <c r="A33" s="60"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="60" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="60" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="60" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="60" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="60" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="A39" s="60"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="60" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="60" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="60"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="60" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="60" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="60" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
+      <c r="A49" s="60"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="60" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="60" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="60" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="60" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="60" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="60" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="60" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="60" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="60" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="71"/>
+      <c r="A60" s="60"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="60" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="60" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="60" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="60" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="60" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="60" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="71"/>
+      <c r="A67" s="60"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="60" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
+      <c r="A70" s="60"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="60" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
+      <c r="A72" s="60"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="60" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
+      <c r="A74" s="60"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="60" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
+      <c r="A76" s="60"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="60" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="60" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
+      <c r="A79" s="60"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="60" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="60" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71" t="s">
+      <c r="A82" s="60" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
+      <c r="A83" s="60"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="60" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="60" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="71" t="s">
+      <c r="A87" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="71"/>
+      <c r="A88" s="60"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="71" t="s">
+      <c r="A89" s="60" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="60" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
+      <c r="A91" s="60"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="71" t="s">
+      <c r="A92" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="71" t="s">
+      <c r="A93" s="60" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="71" t="s">
+      <c r="A94" s="60" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="71" t="s">
+      <c r="A95" s="60" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="71" t="s">
+      <c r="A96" s="60" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="60" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
+      <c r="A98" s="60"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="60" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="60" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="60" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
+      <c r="A102" s="60"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="71" t="s">
+      <c r="A103" s="60" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="60" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="71" t="s">
+      <c r="A105" s="60" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="71" t="s">
+      <c r="A106" s="60" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="71" t="s">
+      <c r="A107" s="60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="71" t="s">
+      <c r="A108" s="60" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="71" t="s">
+      <c r="A109" s="60" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="71" t="s">
+      <c r="A110" s="60" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
+      <c r="A111" s="60"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="71" t="s">
+      <c r="A112" s="60" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="71"/>
+      <c r="A113" s="60"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="71" t="s">
+      <c r="A114" s="60" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="71" t="s">
+      <c r="A115" s="60" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="71" t="s">
+      <c r="A116" s="60" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="71"/>
+      <c r="A117" s="60"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="71" t="s">
+      <c r="A118" s="60" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="71" t="s">
+      <c r="A119" s="60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="71" t="s">
+      <c r="A120" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="71"/>
+      <c r="A122" s="60"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="71" t="s">
+      <c r="A123" s="60" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="71" t="s">
+      <c r="A124" s="60" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="71" t="s">
+      <c r="A125" s="60" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="60" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="71" t="s">
+      <c r="A127" s="60" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="71" t="s">
+      <c r="A128" s="60" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="71" t="s">
+      <c r="A129" s="60" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="71" t="s">
+      <c r="A130" s="60" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="71" t="s">
+      <c r="A131" s="60" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="71" t="s">
+      <c r="A132" s="60" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="71"/>
+      <c r="A133" s="60"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="71" t="s">
+      <c r="A134" s="60" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="71" t="s">
+      <c r="A135" s="60" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="71" t="s">
+      <c r="A136" s="60" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="71" t="s">
+      <c r="A137" s="60" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="60" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="71" t="s">
+      <c r="A139" s="60" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="71" t="s">
+      <c r="A140" s="60" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="71" t="s">
+      <c r="A141" s="60" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="71" t="s">
+      <c r="A142" s="60" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="71" t="s">
+      <c r="A143" s="60" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="71" t="s">
+      <c r="A144" s="60" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="71" t="s">
+      <c r="A145" s="60" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="71"/>
+      <c r="A146" s="60"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="71" t="s">
+      <c r="A147" s="60" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="71" t="s">
+      <c r="A148" s="60" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="71" t="s">
+      <c r="A149" s="60" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="71"/>
+      <c r="A150" s="60"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="60" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="71" t="s">
+      <c r="A152" s="60" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="71"/>
+      <c r="A153" s="60"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="71" t="s">
+      <c r="A154" s="60" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="71"/>
+      <c r="A155" s="60"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="71" t="s">
+      <c r="A156" s="60" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="71" t="s">
+      <c r="A157" s="60" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="71" t="s">
+      <c r="A158" s="60" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="71" t="s">
+      <c r="A159" s="60" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="71" t="s">
+      <c r="A160" s="60" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="71" t="s">
+      <c r="A161" s="60" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="71" t="s">
+      <c r="A162" s="60" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="71"/>
+      <c r="A163" s="60"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="71" t="s">
+      <c r="A164" s="60" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="71" t="s">
+      <c r="A165" s="60" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="71" t="s">
+      <c r="A166" s="60" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="71" t="s">
+      <c r="A167" s="60" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="71" t="s">
+      <c r="A168" s="60" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="71" t="s">
+      <c r="A169" s="60" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="71" t="s">
+      <c r="A170" s="60" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="71" t="s">
+      <c r="A171" s="60" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="71" t="s">
+      <c r="A172" s="60" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="71" t="s">
+      <c r="A173" s="60" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="71"/>
+      <c r="A174" s="60"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="71" t="s">
+      <c r="A175" s="60" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="71" t="s">
+      <c r="A176" s="60" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="71" t="s">
+      <c r="A177" s="60" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="71"/>
+      <c r="A178" s="60"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="71" t="s">
+      <c r="A179" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="71"/>
+      <c r="A180" s="60"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="71" t="s">
+      <c r="A181" s="60" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="71" t="s">
+      <c r="A182" s="60" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="71" t="s">
+      <c r="A183" s="60" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="71" t="s">
+      <c r="A184" s="60" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="71" t="s">
+      <c r="A185" s="60" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="71"/>
+      <c r="A186" s="60"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="71" t="s">
+      <c r="A187" s="60" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="71" t="s">
+      <c r="A188" s="60" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="71" t="s">
+      <c r="A189" s="60" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="71" t="s">
+      <c r="A190" s="60" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="71" t="s">
+      <c r="A191" s="60" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="71" t="s">
+      <c r="A192" s="60" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="71" t="s">
+      <c r="A193" s="60" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="71"/>
+      <c r="A194" s="60"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="71" t="s">
+      <c r="A195" s="60" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="71"/>
+      <c r="A196" s="60"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="71" t="s">
+      <c r="A197" s="60" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="71" t="s">
+      <c r="A198" s="60" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="71" t="s">
+      <c r="A199" s="60" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="71" t="s">
+      <c r="A200" s="60" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="71" t="s">
+      <c r="A201" s="60" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="71" t="s">
+      <c r="A202" s="60" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="71" t="s">
+      <c r="A203" s="60" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="71"/>
+      <c r="A204" s="60"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="71" t="s">
+      <c r="A205" s="60" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="71" t="s">
+      <c r="A206" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="71"/>
+      <c r="A207" s="60"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="71" t="s">
+      <c r="A208" s="60" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="71"/>
+      <c r="A209" s="60"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="71" t="s">
+      <c r="A210" s="60" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="71" t="s">
+      <c r="A211" s="60" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="71" t="s">
+      <c r="A212" s="60" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="71"/>
+      <c r="A213" s="60"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="71" t="s">
+      <c r="A214" s="60" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="71" t="s">
+      <c r="A215" s="60" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="71"/>
+      <c r="A216" s="60"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="71" t="s">
+      <c r="A217" s="60" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="71" t="s">
+      <c r="A218" s="60" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="71" t="s">
+      <c r="A219" s="60" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="71" t="s">
+      <c r="A220" s="60" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="71"/>
+      <c r="A221" s="60"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="71" t="s">
+      <c r="A222" s="60" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="71" t="s">
+      <c r="A223" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="71" t="s">
+      <c r="A224" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="71" t="s">
+      <c r="A225" s="60" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="71" t="s">
+      <c r="A226" s="60" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="71" t="s">
+      <c r="A227" s="60" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="71" t="s">
+      <c r="A228" s="60" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="71"/>
+      <c r="A229" s="60"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="71" t="s">
+      <c r="A230" s="60" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="71" t="s">
+      <c r="A231" s="60" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="71" t="s">
+      <c r="A232" s="60" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="71" t="s">
+      <c r="A233" s="60" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="71"/>
+      <c r="A234" s="60"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="71" t="s">
+      <c r="A235" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="71" t="s">
+      <c r="A236" s="60" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="71" t="s">
+      <c r="A237" s="60" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="71" t="s">
+      <c r="A238" s="60" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="71" t="s">
+      <c r="A239" s="60" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="71" t="s">
+      <c r="A240" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="71" t="s">
+      <c r="A241" s="60" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="71" t="s">
+      <c r="A242" s="60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="71" t="s">
+      <c r="A243" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="71"/>
+      <c r="A244" s="60"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="71" t="s">
+      <c r="A245" s="60" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="71"/>
+      <c r="A246" s="60"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="71" t="s">
+      <c r="A247" s="60" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="71" t="s">
+      <c r="A248" s="60" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="71" t="s">
+      <c r="A249" s="60" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="71" t="s">
+      <c r="A250" s="60" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="71"/>
+      <c r="A251" s="60"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="71" t="s">
+      <c r="A252" s="60" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="71" t="s">
+      <c r="A253" s="60" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="71" t="s">
+      <c r="A254" s="60" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="71" t="s">
+      <c r="A255" s="60" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="71"/>
+      <c r="A256" s="60"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="71" t="s">
+      <c r="A257" s="60" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="71" t="s">
+      <c r="A258" s="60" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="71" t="s">
+      <c r="A259" s="60" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="71" t="s">
+      <c r="A260" s="60" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="71" t="s">
+      <c r="A261" s="60" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="71" t="s">
+      <c r="A262" s="60" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="71" t="s">
+      <c r="A263" s="60" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="71" t="s">
+      <c r="A264" s="60" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="71" t="s">
+      <c r="A265" s="60" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="71" t="s">
+      <c r="A266" s="60" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="71" t="s">
+      <c r="A267" s="60" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="71"/>
+      <c r="A268" s="60"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="71" t="s">
+      <c r="A269" s="60" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="71" t="s">
+      <c r="A270" s="60" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="71" t="s">
+      <c r="A271" s="60" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="71" t="s">
+      <c r="A272" s="60" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="71" t="s">
+      <c r="A273" s="60" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="71"/>
+      <c r="A274" s="60"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="71" t="s">
+      <c r="A275" s="60" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="71" t="s">
+      <c r="A276" s="60" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="71" t="s">
+      <c r="A277" s="60" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="71" t="s">
+      <c r="A278" s="60" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="71" t="s">
+      <c r="A279" s="60" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="71" t="s">
+      <c r="A280" s="60" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="71" t="s">
+      <c r="A281" s="60" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="71" t="s">
+      <c r="A282" s="60" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="71" t="s">
+      <c r="A283" s="60" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="71" t="s">
+      <c r="A284" s="60" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="71" t="s">
+      <c r="A285" s="60" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="71" t="s">
+      <c r="A286" s="60" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="71"/>
+      <c r="A287" s="60"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="71" t="s">
+      <c r="A288" s="60" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="71" t="s">
+      <c r="A289" s="60" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="71" t="s">
+      <c r="A290" s="60" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="71" t="s">
+      <c r="A291" s="60" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="71"/>
+      <c r="A292" s="60"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="71" t="s">
+      <c r="A293" s="60" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="71" t="s">
+      <c r="A294" s="60" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="71" t="s">
+      <c r="A295" s="60" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="71"/>
+      <c r="A296" s="60"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="71" t="s">
+      <c r="A297" s="60" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="71" t="s">
+      <c r="A298" s="60" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="71" t="s">
+      <c r="A299" s="60" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="71" t="s">
+      <c r="A300" s="60" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="71" t="s">
+      <c r="A301" s="60" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="71" t="s">
+      <c r="A302" s="60" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="71" t="s">
+      <c r="A303" s="60" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="71" t="s">
+      <c r="A304" s="60" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="71" t="s">
+      <c r="A305" s="60" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="71" t="s">
+      <c r="A306" s="60" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="71" t="s">
+      <c r="A307" s="60" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="71" t="s">
+      <c r="A308" s="60" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="71"/>
+      <c r="A309" s="60"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="71" t="s">
+      <c r="A310" s="60" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="71" t="s">
+      <c r="A311" s="60" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="71" t="s">
+      <c r="A312" s="60" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="71" t="s">
+      <c r="A313" s="60" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="71" t="s">
+      <c r="A314" s="60" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="71" t="s">
+      <c r="A315" s="60" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="71" t="s">
+      <c r="A316" s="60" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="71"/>
+      <c r="A317" s="60"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="71" t="s">
+      <c r="A318" s="60" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="71" t="s">
+      <c r="A319" s="60" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="71" t="s">
+      <c r="A320" s="60" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="71" t="s">
+      <c r="A321" s="60" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="71" t="s">
+      <c r="A322" s="60" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="71" t="s">
+      <c r="A323" s="60" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="71" t="s">
+      <c r="A324" s="60" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="71" t="s">
+      <c r="A325" s="60" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="71" t="s">
+      <c r="A326" s="60" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="71" t="s">
+      <c r="A327" s="60" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="71"/>
+      <c r="A328" s="60"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="71" t="s">
+      <c r="A329" s="60" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="71" t="s">
+      <c r="A330" s="60" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="71" t="s">
+      <c r="A331" s="60" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="71" t="s">
+      <c r="A332" s="60" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="71" t="s">
+      <c r="A333" s="60" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="71" t="s">
+      <c r="A334" s="60" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="71" t="s">
+      <c r="A335" s="60" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="71"/>
+      <c r="A336" s="60"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="71" t="s">
+      <c r="A337" s="60" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="71" t="s">
+      <c r="A338" s="60" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="71" t="s">
+      <c r="A339" s="60" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="71" t="s">
+      <c r="A340" s="60" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="71" t="s">
+      <c r="A341" s="60" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="71"/>
+      <c r="A342" s="60"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="71" t="s">
+      <c r="A343" s="60" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="71"/>
+      <c r="A344" s="60"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="71" t="s">
+      <c r="A345" s="60" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="71" t="s">
+      <c r="A346" s="60" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="71" t="s">
+      <c r="A347" s="60" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="71" t="s">
+      <c r="A348" s="60" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="71" t="s">
+      <c r="A349" s="60" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="71" t="s">
+      <c r="A350" s="60" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="71" t="s">
+      <c r="A351" s="60" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="71" t="s">
+      <c r="A352" s="60" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="71"/>
+      <c r="A353" s="60"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="71" t="s">
+      <c r="A354" s="60" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="71" t="s">
+      <c r="A355" s="60" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="71" t="s">
+      <c r="A356" s="60" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="71" t="s">
+      <c r="A357" s="60" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="71" t="s">
+      <c r="A358" s="60" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="71" t="s">
+      <c r="A359" s="60" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="71"/>
+      <c r="A360" s="60"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="71" t="s">
+      <c r="A361" s="60" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="71" t="s">
+      <c r="A362" s="60" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="71" t="s">
+      <c r="A363" s="60" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="71"/>
+      <c r="A364" s="60"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="71" t="s">
+      <c r="A365" s="60" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="71" t="s">
+      <c r="A366" s="60" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="71"/>
+      <c r="A367" s="60"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="71" t="s">
+      <c r="A368" s="60" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="71" t="s">
+      <c r="A369" s="60" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="71" t="s">
+      <c r="A370" s="60" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="71"/>
+      <c r="A371" s="60"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="71" t="s">
+      <c r="A372" s="60" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="71" t="s">
+      <c r="A373" s="60" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="71" t="s">
+      <c r="A374" s="60" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="71"/>
+      <c r="A375" s="60"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="71" t="s">
+      <c r="A376" s="60" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="71" t="s">
+      <c r="A377" s="60" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="71"/>
+      <c r="A378" s="60"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="71" t="s">
+      <c r="A379" s="60" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="71" t="s">
+      <c r="A380" s="60" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="71"/>
+      <c r="A381" s="60"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="71" t="s">
+      <c r="A382" s="60" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="71" t="s">
+      <c r="A383" s="60" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="71" t="s">
+      <c r="A384" s="60" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="71" t="s">
+      <c r="A385" s="60" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="71" t="s">
+      <c r="A386" s="60" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="71"/>
+      <c r="A387" s="60"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="71" t="s">
+      <c r="A388" s="60" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="71" t="s">
+      <c r="A389" s="60" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="71" t="s">
+      <c r="A390" s="60" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="71" t="s">
+      <c r="A391" s="60" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="71" t="s">
+      <c r="A392" s="60" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="71" t="s">
+      <c r="A393" s="60" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="71" t="s">
+      <c r="A394" s="60" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="71" t="s">
+      <c r="A395" s="60" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="71" t="s">
+      <c r="A396" s="60" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="71"/>
+      <c r="A397" s="60"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="71" t="s">
+      <c r="A398" s="60" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="71" t="s">
+      <c r="A399" s="60" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="71" t="s">
+      <c r="A400" s="60" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="71" t="s">
+      <c r="A401" s="60" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="71"/>
+      <c r="A402" s="60"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="71" t="s">
+      <c r="A403" s="60" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="71" t="s">
+      <c r="A404" s="60" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="71" t="s">
+      <c r="A405" s="60" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="71"/>
+      <c r="A406" s="60"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="71" t="s">
+      <c r="A407" s="60" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="71"/>
+      <c r="A408" s="60"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="71" t="s">
+      <c r="A409" s="60" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="71" t="s">
+      <c r="A410" s="60" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="71" t="s">
+      <c r="A411" s="60" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="71" t="s">
+      <c r="A412" s="60" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="71" t="s">
+      <c r="A413" s="60" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="71"/>
+      <c r="A414" s="60"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="71" t="s">
+      <c r="A415" s="60" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="71" t="s">
+      <c r="A416" s="60" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="71" t="s">
+      <c r="A417" s="60" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="71" t="s">
+      <c r="A418" s="60" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="71" t="s">
+      <c r="A419" s="60" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="71" t="s">
+      <c r="A420" s="60" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="71"/>
+      <c r="A421" s="60"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="71" t="s">
+      <c r="A422" s="60" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="71" t="s">
+      <c r="A423" s="60" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="71" t="s">
+      <c r="A424" s="60" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="71" t="s">
+      <c r="A425" s="60" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="71" t="s">
+      <c r="A426" s="60" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="71" t="s">
+      <c r="A427" s="60" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="71"/>
+      <c r="A428" s="60"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="71" t="s">
+      <c r="A429" s="60" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="71" t="s">
+      <c r="A430" s="60" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="71" t="s">
+      <c r="A431" s="60" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="71" t="s">
+      <c r="A432" s="60" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="71" t="s">
+      <c r="A433" s="60" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="71"/>
+      <c r="A434" s="60"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="71" t="s">
+      <c r="A435" s="60" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="71"/>
+      <c r="A436" s="60"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="71" t="s">
+      <c r="A437" s="60" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="71" t="s">
+      <c r="A438" s="60" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="71" t="s">
+      <c r="A439" s="60" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="71" t="s">
+      <c r="A440" s="60" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="71" t="s">
+      <c r="A441" s="60" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="71" t="s">
+      <c r="A442" s="60" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="71" t="s">
+      <c r="A443" s="60" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="71" t="s">
+      <c r="A444" s="60" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="71"/>
+      <c r="A445" s="60"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="71" t="s">
+      <c r="A446" s="60" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="71"/>
+      <c r="A447" s="60"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="71" t="s">
+      <c r="A448" s="60" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="71" t="s">
+      <c r="A449" s="60" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="71" t="s">
+      <c r="A450" s="60" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="71" t="s">
+      <c r="A451" s="60" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="71"/>
+      <c r="A452" s="60"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="71" t="s">
+      <c r="A453" s="60" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="71" t="s">
+      <c r="A454" s="60" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="71" t="s">
+      <c r="A455" s="60" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="71" t="s">
+      <c r="A456" s="60" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="71" t="s">
+      <c r="A457" s="60" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="71" t="s">
+      <c r="A458" s="60" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="71" t="s">
+      <c r="A459" s="60" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="71" t="s">
+      <c r="A460" s="60" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="71" t="s">
+      <c r="A461" s="60" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="71"/>
+      <c r="A462" s="60"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="71" t="s">
+      <c r="A463" s="60" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="71" t="s">
+      <c r="A464" s="60" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="71" t="s">
+      <c r="A465" s="60" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="71" t="s">
+      <c r="A466" s="60" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="71" t="s">
+      <c r="A467" s="60" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="71" t="s">
+      <c r="A468" s="60" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="71" t="s">
+      <c r="A469" s="60" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="71"/>
+      <c r="A470" s="60"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="71" t="s">
+      <c r="A471" s="60" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="71"/>
+      <c r="A472" s="60"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="71" t="s">
+      <c r="A473" s="60" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="71" t="s">
+      <c r="A474" s="60" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="71" t="s">
+      <c r="A475" s="60" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="71"/>
+      <c r="A476" s="60"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="71" t="s">
+      <c r="A477" s="60" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="71" t="s">
+      <c r="A478" s="60" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="71" t="s">
+      <c r="A479" s="60" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="71" t="s">
+      <c r="A480" s="60" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="71" t="s">
+      <c r="A481" s="60" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="71" t="s">
+      <c r="A482" s="60" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="71" t="s">
+      <c r="A483" s="60" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="71" t="s">
+      <c r="A484" s="60" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="71" t="s">
+      <c r="A485" s="60" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="71"/>
+      <c r="A486" s="60"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="71" t="s">
+      <c r="A487" s="60" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="71" t="s">
+      <c r="A488" s="60" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="71" t="s">
+      <c r="A489" s="60" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="71" t="s">
+      <c r="A490" s="60" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="71"/>
+      <c r="A491" s="60"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="71" t="s">
+      <c r="A492" s="60" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="71" t="s">
+      <c r="A493" s="60" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="71" t="s">
+      <c r="A494" s="60" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="71" t="s">
+      <c r="A495" s="60" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="71" t="s">
+      <c r="A496" s="60" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="71" t="s">
+      <c r="A497" s="60" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="71"/>
+      <c r="A498" s="60"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="71" t="s">
+      <c r="A499" s="60" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="71" t="s">
+      <c r="A500" s="60" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="71" t="s">
+      <c r="A501" s="60" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="71" t="s">
+      <c r="A502" s="60" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="71" t="s">
+      <c r="A503" s="60" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="71" t="s">
+      <c r="A504" s="60" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="71" t="s">
+      <c r="A505" s="60" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="71" t="s">
+      <c r="A506" s="60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="71" t="s">
+      <c r="A507" s="60" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="71" t="s">
+      <c r="A508" s="60" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="71" t="s">
+      <c r="A509" s="60" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="71" t="s">
+      <c r="A510" s="60" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="71" t="s">
+      <c r="A511" s="60" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="71"/>
+      <c r="A512" s="60"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="71" t="s">
+      <c r="A513" s="60" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="71" t="s">
+      <c r="A514" s="60" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="71" t="s">
+      <c r="A515" s="60" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="71" t="s">
+      <c r="A516" s="60" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="71" t="s">
+      <c r="A517" s="60" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="71" t="s">
+      <c r="A518" s="60" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="71" t="s">
+      <c r="A519" s="60" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="71"/>
+      <c r="A520" s="60"/>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="71" t="s">
+      <c r="A521" s="60" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="71" t="s">
+      <c r="A522" s="60" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="71" t="s">
+      <c r="A523" s="60" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="71" t="s">
+      <c r="A524" s="60" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="71" t="s">
+      <c r="A525" s="60" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="71" t="s">
+      <c r="A526" s="60" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="71" t="s">
+      <c r="A527" s="60" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="71" t="s">
+      <c r="A528" s="60" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="71" t="s">
+      <c r="A529" s="60" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="71" t="s">
+      <c r="A530" s="60" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="71" t="s">
+      <c r="A531" s="60" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="71" t="s">
+      <c r="A532" s="60" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="71" t="s">
+      <c r="A533" s="60" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="71" t="s">
+      <c r="A534" s="60" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="71"/>
+      <c r="A535" s="60"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="71" t="s">
+      <c r="A536" s="60" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="71" t="s">
+      <c r="A537" s="60" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="71" t="s">
+      <c r="A538" s="60" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="71"/>
+      <c r="A539" s="60"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="71" t="s">
+      <c r="A540" s="60" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="71"/>
+      <c r="A541" s="60"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="71" t="s">
+      <c r="A542" s="60" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="71" t="s">
+      <c r="A543" s="60" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="71" t="s">
+      <c r="A544" s="60" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="71" t="s">
+      <c r="A545" s="60" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="71" t="s">
+      <c r="A546" s="60" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="71" t="s">
+      <c r="A547" s="60" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="71" t="s">
+      <c r="A548" s="60" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="71" t="s">
+      <c r="A549" s="60" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="71" t="s">
+      <c r="A550" s="60" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="71"/>
+      <c r="A551" s="60"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="71" t="s">
+      <c r="A552" s="60" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="71"/>
+      <c r="A553" s="60"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="71" t="s">
+      <c r="A554" s="60" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="71" t="s">
+      <c r="A555" s="60" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="71" t="s">
+      <c r="A556" s="60" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="71" t="s">
+      <c r="A557" s="60" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="71" t="s">
+      <c r="A558" s="60" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="71" t="s">
+      <c r="A559" s="60" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="71" t="s">
+      <c r="A560" s="60" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="71" t="s">
+      <c r="A561" s="60" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="71"/>
+      <c r="A562" s="60"/>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="71" t="s">
+      <c r="A563" s="60" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="71"/>
+      <c r="A564" s="60"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="71" t="s">
+      <c r="A565" s="60" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="71" t="s">
+      <c r="A566" s="60" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="71" t="s">
+      <c r="A567" s="60" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="71" t="s">
+      <c r="A568" s="60" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="71"/>
+      <c r="A569" s="60"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="71" t="s">
+      <c r="A570" s="60" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="71" t="s">
+      <c r="A571" s="60" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="71" t="s">
+      <c r="A572" s="60" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="71" t="s">
+      <c r="A573" s="60" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="71" t="s">
+      <c r="A574" s="60" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="71" t="s">
+      <c r="A575" s="60" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="71" t="s">
+      <c r="A576" s="60" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="71" t="s">
+      <c r="A577" s="60" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="71"/>
+      <c r="A578" s="60"/>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="71" t="s">
+      <c r="A579" s="60" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="71" t="s">
+      <c r="A580" s="60" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="71" t="s">
+      <c r="A581" s="60" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="71" t="s">
+      <c r="A582" s="60" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="71"/>
+      <c r="A583" s="60"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="71" t="s">
+      <c r="A584" s="60" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="71" t="s">
+      <c r="A585" s="60" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="71" t="s">
+      <c r="A586" s="60" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="71" t="s">
+      <c r="A587" s="60" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="71"/>
+      <c r="A588" s="60"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="71" t="s">
+      <c r="A589" s="60" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="71"/>
+      <c r="A590" s="60"/>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="71" t="s">
+      <c r="A591" s="60" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="71" t="s">
+      <c r="A592" s="60" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="71" t="s">
+      <c r="A593" s="60" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="71" t="s">
+      <c r="A594" s="60" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="71" t="s">
+      <c r="A595" s="60" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="71" t="s">
+      <c r="A596" s="60" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="71" t="s">
+      <c r="A597" s="60" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="71" t="s">
+      <c r="A598" s="60" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="71"/>
+      <c r="A599" s="60"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="71" t="s">
+      <c r="A600" s="60" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="71"/>
+      <c r="A601" s="60"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="71" t="s">
+      <c r="A602" s="60" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="71" t="s">
+      <c r="A603" s="60" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="71" t="s">
+      <c r="A604" s="60" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="71" t="s">
+      <c r="A605" s="60" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="71" t="s">
+      <c r="A606" s="60" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="71" t="s">
+      <c r="A607" s="60" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="71" t="s">
+      <c r="A608" s="60" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="71" t="s">
+      <c r="A609" s="60" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="71" t="s">
+      <c r="A610" s="60" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="71"/>
+      <c r="A611" s="60"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="71" t="s">
+      <c r="A612" s="60" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="71"/>
+      <c r="A613" s="60"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="71" t="s">
+      <c r="A614" s="60" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="71" t="s">
+      <c r="A615" s="60" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="71" t="s">
+      <c r="A616" s="60" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="71" t="s">
+      <c r="A617" s="60" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="71" t="s">
+      <c r="A618" s="60" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="71" t="s">
+      <c r="A619" s="60" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="71"/>
+      <c r="A620" s="60"/>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="71" t="s">
+      <c r="A621" s="60" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="71"/>
+      <c r="A622" s="60"/>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="71"/>
+      <c r="A623" s="60"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="71"/>
+      <c r="A624" s="60"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="71"/>
+      <c r="A625" s="60"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="71"/>
+      <c r="A626" s="60"/>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="71"/>
+      <c r="A627" s="60"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="71"/>
+      <c r="A628" s="60"/>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="71"/>
+      <c r="A629" s="60"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="71"/>
+      <c r="A630" s="60"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="71"/>
+      <c r="A631" s="60"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="71"/>
+      <c r="A632" s="60"/>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="71"/>
+      <c r="A633" s="60"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="71"/>
+      <c r="A634" s="60"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="71"/>
+      <c r="A635" s="60"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="71"/>
+      <c r="A636" s="60"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="71"/>
+      <c r="A637" s="60"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="71"/>
+      <c r="A638" s="60"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="71"/>
+      <c r="A639" s="60"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="71"/>
+      <c r="A640" s="60"/>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="71"/>
+      <c r="A641" s="60"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="71"/>
+      <c r="A642" s="60"/>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="71"/>
+      <c r="A643" s="60"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="71"/>
+      <c r="A644" s="60"/>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="71"/>
+      <c r="A645" s="60"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="71"/>
+      <c r="A646" s="60"/>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="71"/>
+      <c r="A647" s="60"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="71"/>
+      <c r="A648" s="60"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="71"/>
+      <c r="A649" s="60"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="71"/>
+      <c r="A650" s="60"/>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="71"/>
+      <c r="A651" s="60"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="71"/>
+      <c r="A652" s="60"/>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="71"/>
+      <c r="A653" s="60"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="71"/>
+      <c r="A654" s="60"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="71"/>
+      <c r="A655" s="60"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="71"/>
+      <c r="A656" s="60"/>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="71"/>
+      <c r="A657" s="60"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="71"/>
+      <c r="A658" s="60"/>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="71"/>
+      <c r="A659" s="60"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="71"/>
+      <c r="A660" s="60"/>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="71"/>
+      <c r="A661" s="60"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="71"/>
+      <c r="A662" s="60"/>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="71"/>
+      <c r="A663" s="60"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="71"/>
+      <c r="A664" s="60"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="71"/>
+      <c r="A665" s="60"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="71"/>
+      <c r="A666" s="60"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="71"/>
+      <c r="A667" s="60"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="71"/>
+      <c r="A668" s="60"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="71"/>
+      <c r="A669" s="60"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="71"/>
+      <c r="A670" s="60"/>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="71"/>
+      <c r="A671" s="60"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="71"/>
+      <c r="A672" s="60"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="71"/>
+      <c r="A673" s="60"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="71"/>
+      <c r="A674" s="60"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="72"/>
+      <c r="A675" s="61"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="71"/>
+      <c r="A676" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
